--- a/Documentation/SECON_2022_MasterBOM.xlsx
+++ b/Documentation/SECON_2022_MasterBOM.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Capstone\POs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Capstone\Repository\SECON2022\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D92017-F9A2-4497-B103-70F3158F323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A62EC0-7B50-4A7E-82BC-7A7BD2031DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{52A2D926-1D8F-4478-8A72-5FF54C9687DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget Breakdown" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="241">
   <si>
     <t>Product Name</t>
   </si>
@@ -597,6 +598,177 @@
   </si>
   <si>
     <t>Elegoo</t>
+  </si>
+  <si>
+    <t>Additional Hardware, Electronic Components, Items Purchased by Team Members</t>
+  </si>
+  <si>
+    <t>Subsystem/Component</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>game board</t>
+  </si>
+  <si>
+    <t>Central Controller</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>per unit</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>ppu</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>Acrylic</t>
+  </si>
+  <si>
+    <t>screws</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Vision System</t>
+  </si>
+  <si>
+    <t>Turntable</t>
+  </si>
+  <si>
+    <t>Motor Mount</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Peripherals</t>
+  </si>
+  <si>
+    <t>Shooting Mechanism</t>
+  </si>
+  <si>
+    <t>Arduino Uno</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>caps</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Compartment Motor</t>
+  </si>
+  <si>
+    <t>diode</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Coupling</t>
+  </si>
+  <si>
+    <t>Audio Shield</t>
+  </si>
+  <si>
+    <t>Shaft</t>
+  </si>
+  <si>
+    <t>Bearings</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Driver Motor</t>
+  </si>
+  <si>
+    <t>wires</t>
+  </si>
+  <si>
+    <t>adapters</t>
+  </si>
+  <si>
+    <t>Arm Servo</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>flashlights</t>
+  </si>
+  <si>
+    <t>Drive Train</t>
+  </si>
+  <si>
+    <t>inserts</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Wall Wart</t>
+  </si>
+  <si>
+    <t>H-Bridge</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Buck Boost</t>
+  </si>
+  <si>
+    <t>IR Sensors</t>
+  </si>
+  <si>
+    <t>Ling Following Sensors</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Gameboard supplies</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Hardware</t>
   </si>
 </sst>
 </file>
@@ -653,7 +825,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -719,12 +891,269 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -772,6 +1201,40 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1558,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1200,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G57" si="0">PRODUCT(E4,F4)</f>
+        <f t="shared" ref="G4:G58" si="0">PRODUCT(E4,F4)</f>
         <v>44.36</v>
       </c>
     </row>
@@ -2476,14 +2939,23 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:7" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
+      <c r="E58" s="48">
+        <v>141.52000000000001</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" si="0"/>
+        <v>141.52000000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A59" s="9"/>
@@ -2494,16 +2966,1344 @@
         <v>176</v>
       </c>
       <c r="F59" s="13">
-        <f>SUM(F2:F57)</f>
-        <v>98</v>
+        <f>SUM(F2:F58)</f>
+        <v>99</v>
       </c>
       <c r="G59" s="16">
-        <f>SUM(G2:G57)</f>
-        <v>1881.9700000000005</v>
+        <f>SUM(G2:G58)</f>
+        <v>2023.4900000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA34E450-73F9-434C-9D02-D0D442B7A7C5}">
+  <dimension ref="B1:W158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="22.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9375" style="26"/>
+    <col min="4" max="4" width="10.29296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1171875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.87890625" customWidth="1"/>
+    <col min="7" max="7" width="22.5859375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.9375" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" s="18">
+        <f>SUM(S4:S28)</f>
+        <v>160.27000000000001</v>
+      </c>
+      <c r="V2" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" s="18">
+        <f>SUM(W4:W14)</f>
+        <v>182.08999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B3" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="Q3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="U3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27">
+        <v>34.25</v>
+      </c>
+      <c r="E4" s="28">
+        <f>C4*D4</f>
+        <v>34.25</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="26">
+        <v>4</v>
+      </c>
+      <c r="I4" s="27">
+        <v>19.32</v>
+      </c>
+      <c r="J4" s="28">
+        <f>H4*I4</f>
+        <v>77.28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0.99</v>
+      </c>
+      <c r="S4" s="18">
+        <f>Q4*R4</f>
+        <v>0.99</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="W4" s="18">
+        <f>U4*V4</f>
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="32">
+        <f>SUM(E4)</f>
+        <v>34.25</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="32">
+        <f>SUM(J4)</f>
+        <v>77.28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="18">
+        <v>7.58</v>
+      </c>
+      <c r="S5" s="18">
+        <f t="shared" ref="S5:S20" si="0">Q5*R5</f>
+        <v>7.58</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>11.98</v>
+      </c>
+      <c r="W5" s="18">
+        <f>U5*V5</f>
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B6" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="G6" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="P6" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18">
+        <v>10.86</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="0"/>
+        <v>10.86</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="W6" s="18">
+        <f>U6*V6</f>
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27">
+        <v>149.99</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" ref="E7:E14" si="1">C7*D7</f>
+        <v>149.99</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <v>19.95</v>
+      </c>
+      <c r="J7" s="28">
+        <f>H7*I7</f>
+        <v>19.95</v>
+      </c>
+      <c r="P7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="18">
+        <v>7.88</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="0"/>
+        <v>7.88</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>4.96</v>
+      </c>
+      <c r="W7" s="18">
+        <f>U7*V7</f>
+        <v>14.879999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27">
+        <v>29.99</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="1"/>
+        <v>59.98</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="27">
+        <v>34.99</v>
+      </c>
+      <c r="J8" s="28">
+        <f>H8*I8</f>
+        <v>34.99</v>
+      </c>
+      <c r="P8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="18">
+        <v>20</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>6.98</v>
+      </c>
+      <c r="W8" s="18">
+        <f>U8*V8</f>
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="32">
+        <f>SUM(E7:E8)</f>
+        <v>209.97</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="34">
+        <f>SUM(J7:J8)</f>
+        <v>54.94</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B10" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="P10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>3.98</v>
+      </c>
+      <c r="W10" s="18">
+        <f>U10*V10</f>
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B11" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27">
+        <v>20.98</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="1"/>
+        <v>20.98</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="27">
+        <v>20.98</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" ref="J11:J16" si="2">H11*I11</f>
+        <v>20.98</v>
+      </c>
+      <c r="P11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0.99</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="0"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W11" s="18">
+        <f>U11*V11</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B12" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="27">
+        <v>9.99</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="1"/>
+        <v>9.99</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27">
+        <v>19.95</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="2"/>
+        <v>19.95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12" s="18">
+        <v>1.19</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="0"/>
+        <v>3.57</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2.62</v>
+      </c>
+      <c r="W12" s="18">
+        <f>U12*V12</f>
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B13" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="27">
+        <v>7.99</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="1"/>
+        <v>7.99</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="27">
+        <v>4.99</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="2"/>
+        <v>4.99</v>
+      </c>
+      <c r="P13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13" s="18">
+        <v>1.79</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="0"/>
+        <v>10.74</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>35</v>
+      </c>
+      <c r="W13" s="18">
+        <f>U13*V13</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="27">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="1"/>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="27">
+        <v>8.02</v>
+      </c>
+      <c r="J14" s="28">
+        <f t="shared" si="2"/>
+        <v>8.02</v>
+      </c>
+      <c r="P14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14" s="18">
+        <v>3.29</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="0"/>
+        <v>19.740000000000002</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>15</v>
+      </c>
+      <c r="W14" s="18">
+        <f>U14*V14</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="32">
+        <f>SUM(E11:E14)</f>
+        <v>73.91</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="26">
+        <v>3</v>
+      </c>
+      <c r="I15" s="27">
+        <v>9.56</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="2"/>
+        <v>28.68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" s="18">
+        <v>10.28</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="0"/>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B16" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="G16" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="27">
+        <v>24.95</v>
+      </c>
+      <c r="J16" s="28">
+        <f t="shared" si="2"/>
+        <v>24.95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" s="18">
+        <v>30</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1</v>
+      </c>
+      <c r="D17" s="27">
+        <v>399</v>
+      </c>
+      <c r="E17" s="28">
+        <f>C17*D17</f>
+        <v>399</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17" s="34">
+        <f>SUM(J11:J16)</f>
+        <v>107.57000000000001</v>
+      </c>
+      <c r="P17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="18">
+        <v>5.99</v>
+      </c>
+      <c r="S17" s="18">
+        <f t="shared" si="0"/>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="E18" s="28">
+        <f>C18*D18</f>
+        <v>17.5</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="P18" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18" s="18">
+        <v>2</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="32">
+        <f>SUM(E17:E18)</f>
+        <v>416.5</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1</v>
+      </c>
+      <c r="I19" s="27">
+        <v>12.99</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" ref="J19:J26" si="3">H19*I19</f>
+        <v>12.99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="18">
+        <v>8.32</v>
+      </c>
+      <c r="S19" s="18">
+        <f t="shared" si="0"/>
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B20" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="26">
+        <v>2</v>
+      </c>
+      <c r="I20" s="27">
+        <v>14.85</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="3"/>
+        <v>29.7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="18">
+        <v>12.06</v>
+      </c>
+      <c r="S20" s="18">
+        <f t="shared" si="0"/>
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B21" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="27">
+        <v>70.94</v>
+      </c>
+      <c r="E21" s="28">
+        <f>C21*D21</f>
+        <v>70.94</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="26">
+        <v>1</v>
+      </c>
+      <c r="I21" s="27">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J21" s="28">
+        <f t="shared" si="3"/>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B22" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="26">
+        <v>2</v>
+      </c>
+      <c r="D22" s="27">
+        <v>8.99</v>
+      </c>
+      <c r="E22" s="28">
+        <f>C22*D22</f>
+        <v>17.98</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22" s="26">
+        <v>1</v>
+      </c>
+      <c r="I22" s="27">
+        <v>15.99</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" si="3"/>
+        <v>15.99</v>
+      </c>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B23" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="26">
+        <v>5</v>
+      </c>
+      <c r="D23" s="27">
+        <v>24.95</v>
+      </c>
+      <c r="E23" s="28">
+        <f>C23*D23</f>
+        <v>124.75</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="27">
+        <v>55.99</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" si="3"/>
+        <v>55.99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B24" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="26">
+        <v>4</v>
+      </c>
+      <c r="D24" s="27">
+        <v>8.99</v>
+      </c>
+      <c r="E24" s="28">
+        <f>C24*D24</f>
+        <v>35.96</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="26">
+        <v>3</v>
+      </c>
+      <c r="I24" s="27">
+        <v>9.49</v>
+      </c>
+      <c r="J24" s="28">
+        <f t="shared" si="3"/>
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="26">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27">
+        <v>7</v>
+      </c>
+      <c r="E25" s="28">
+        <f>C25*D25</f>
+        <v>21</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="27">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="J25" s="28">
+        <f t="shared" si="3"/>
+        <v>35.950000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="32">
+        <f>SUM(E21:E25)</f>
+        <v>270.63</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="27">
+        <v>120</v>
+      </c>
+      <c r="J26" s="28">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" s="28">
+        <f>SUM(J19:J26)</f>
+        <v>436.08</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="28">
+        <f>W2</f>
+        <v>182.08999999999997</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43">
+        <f>SUM(E19+E26+J9+J17+J27+J5+E15+E9+E5+E30)</f>
+        <v>2023.4900000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="28">
+        <f>S2</f>
+        <v>160.27000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="47">
+        <f>SUM(E28:E29)</f>
+        <v>342.36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C31"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C32"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C33"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C34"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C35"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C36"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C37"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C38"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C39"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C40"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C41"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C42"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C43"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C44"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C45"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C46"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C47"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C48"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C49"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C50"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C51"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C52"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C53"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C54"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C55"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C56"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C57"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C58"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C59"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C60"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C61"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C62"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C63"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C64"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C65"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C66"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C67"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C68"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C69"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C70"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C71"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C72"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C73"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C74"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C75"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C76"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C77"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C78"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C79"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C80"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C81"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E153" s="27">
+        <f t="shared" ref="E153:E158" si="4">C153*D153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E154" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E155" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E156" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E157" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E158" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>